--- a/BandStudy.xlsx
+++ b/BandStudy.xlsx
@@ -39,11 +39,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -59,6 +60,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +192,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -205,7 +217,176 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -274,11 +455,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58077867"/>
-        <c:axId val="49141634"/>
+        <c:axId val="55177139"/>
+        <c:axId val="83116501"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58077867"/>
+        <c:axId val="55177139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,14 +494,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49141634"/>
+        <c:crossAx val="83116501"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49141634"/>
+        <c:axId val="83116501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +516,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -364,7 +545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58077867"/>
+        <c:crossAx val="55177139"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -391,7 +572,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -416,7 +597,464 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -557,11 +1195,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="99776610"/>
-        <c:axId val="47770121"/>
+        <c:axId val="50541828"/>
+        <c:axId val="82702994"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99776610"/>
+        <c:axId val="50541828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,14 +1234,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47770121"/>
+        <c:crossAx val="82702994"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47770121"/>
+        <c:axId val="82702994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +1256,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -647,7 +1285,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99776610"/>
+        <c:crossAx val="50541828"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -674,7 +1312,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -699,7 +1337,320 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -804,11 +1755,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="29173417"/>
-        <c:axId val="16782260"/>
+        <c:axId val="20248340"/>
+        <c:axId val="99906913"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29173417"/>
+        <c:axId val="20248340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,14 +1794,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16782260"/>
+        <c:crossAx val="99906913"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16782260"/>
+        <c:axId val="99906913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +1816,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -894,7 +1845,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29173417"/>
+        <c:crossAx val="20248340"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -921,7 +1872,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -946,7 +1897,608 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1123,11 +2675,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="45851191"/>
-        <c:axId val="34797648"/>
+        <c:axId val="32077524"/>
+        <c:axId val="78731185"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45851191"/>
+        <c:axId val="32077524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,14 +2714,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34797648"/>
+        <c:crossAx val="78731185"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34797648"/>
+        <c:axId val="78731185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +2736,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1213,7 +2765,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45851191"/>
+        <c:crossAx val="32077524"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1240,7 +2792,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1265,7 +2817,176 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1334,11 +3055,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="6449898"/>
-        <c:axId val="62983017"/>
+        <c:axId val="74960209"/>
+        <c:axId val="36276867"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6449898"/>
+        <c:axId val="74960209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,14 +3094,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62983017"/>
+        <c:crossAx val="36276867"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62983017"/>
+        <c:axId val="36276867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +3116,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1424,7 +3145,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6449898"/>
+        <c:crossAx val="74960209"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1451,7 +3172,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1476,7 +3197,464 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1617,11 +3795,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="39643309"/>
-        <c:axId val="21658781"/>
+        <c:axId val="66772798"/>
+        <c:axId val="88627123"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39643309"/>
+        <c:axId val="66772798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,14 +3834,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21658781"/>
+        <c:crossAx val="88627123"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21658781"/>
+        <c:axId val="88627123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +3856,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1707,7 +3885,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39643309"/>
+        <c:crossAx val="66772798"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1734,7 +3912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1759,7 +3937,320 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1864,11 +4355,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="87726875"/>
-        <c:axId val="74824084"/>
+        <c:axId val="89586511"/>
+        <c:axId val="14932527"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87726875"/>
+        <c:axId val="89586511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,14 +4394,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74824084"/>
+        <c:crossAx val="14932527"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74824084"/>
+        <c:axId val="14932527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +4416,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1954,7 +4445,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87726875"/>
+        <c:crossAx val="89586511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1981,7 +4472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2006,7 +4497,608 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2183,11 +5275,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="72358996"/>
-        <c:axId val="15860407"/>
+        <c:axId val="2927505"/>
+        <c:axId val="24175434"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72358996"/>
+        <c:axId val="2927505"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,14 +5314,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15860407"/>
+        <c:crossAx val="24175434"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15860407"/>
+        <c:axId val="24175434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +5336,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2273,7 +5365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72358996"/>
+        <c:crossAx val="2927505"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2300,7 +5392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2325,7 +5417,763 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="2972724840">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff">
+                  <a:alpha val="-47148408"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="3109385880">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:ln w="1161954720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:ln w="4124252160">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f">
+                  <a:alpha val="-628179704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="1772368920">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="57"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:ln w="6029941680">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="58"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b">
+                  <a:alpha val="-25601112"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="4647817080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="59"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1">
+                  <a:alpha val="-33901000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="12240360">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="60"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="61"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="62"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2541,11 +6389,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81847916"/>
-        <c:axId val="75580887"/>
+        <c:axId val="16177119"/>
+        <c:axId val="76510283"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81847916"/>
+        <c:axId val="16177119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,14 +6428,330 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75580887"/>
+        <c:crossAx val="76510283"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75580887"/>
+        <c:axId val="76510283"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16177119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'TBG .025'!$B$84:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>4.326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.652</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.596</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.542</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.491</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.439</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.388</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.207</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.165</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.121</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.948</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.904</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.859</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.813</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.719</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.571</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.518</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.412</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.115</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.981</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.908</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.669</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.583</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="30678553"/>
+        <c:axId val="25239887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="30678553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25239887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25239887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +6795,645 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81847916"/>
+        <c:crossAx val="30678553"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'TBG .025'!$F$84:$F$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>6.476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.787</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.407</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.323</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.085</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.804</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.736</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.462</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.393</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.322</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.177</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.935</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.676</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.581</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.483</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.273</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.168</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.056</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.824</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.276</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.118</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.949</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.768</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="21218160"/>
+        <c:axId val="29163814"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="21218160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29163814"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29163814"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21218160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'TBG .025'!$J$84:$J$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>6.268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.411</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.119</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.546</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.471</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.258</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.127</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.063</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.935</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.873</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.806</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.738</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.529</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.452</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.369</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.281</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.188</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.988</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.883</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.774</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.661</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.539</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.145</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="40741674"/>
+        <c:axId val="36233877"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40741674"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36233877"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36233877"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40741674"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2669,9 +7471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>120600</xdr:colOff>
+      <xdr:colOff>120240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2680,7 +7482,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="273960" y="3172680"/>
-        <a:ext cx="3195360" cy="2181960"/>
+        <a:ext cx="3141720" cy="2181600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2699,9 +7501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>738360</xdr:colOff>
+      <xdr:colOff>738000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2709,8 +7511,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6633720" y="7140960"/>
-        <a:ext cx="3407040" cy="2306880"/>
+        <a:off x="6538320" y="7140960"/>
+        <a:ext cx="3353040" cy="2306520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2729,9 +7531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>726120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2739,8 +7541,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3287160" y="5095080"/>
-        <a:ext cx="3363840" cy="2277720"/>
+        <a:off x="3246840" y="5095080"/>
+        <a:ext cx="3308400" cy="2277360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2759,9 +7561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2769,8 +7571,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9099360" y="9033840"/>
-        <a:ext cx="3056400" cy="2565000"/>
+        <a:off x="8962560" y="9033840"/>
+        <a:ext cx="3002040" cy="2564640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2794,9 +7596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>697680</xdr:colOff>
+      <xdr:colOff>697320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2805,7 +7607,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="273960" y="3172680"/>
-        <a:ext cx="1827360" cy="2354400"/>
+        <a:ext cx="1804320" cy="2354040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2823,10 +7625,10 @@
       <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>712080</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2834,8 +7636,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4522680" y="6892560"/>
-        <a:ext cx="2073240" cy="2402280"/>
+        <a:off x="4443120" y="6892560"/>
+        <a:ext cx="2050200" cy="2401920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2854,9 +7656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2864,8 +7666,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2246400" y="5018400"/>
-        <a:ext cx="2125080" cy="2248920"/>
+        <a:off x="2207160" y="5018400"/>
+        <a:ext cx="2087640" cy="2248560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2877,16 +7679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92160</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>667440</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2894,8 +7696,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6700680" y="8833320"/>
-        <a:ext cx="2080440" cy="2565360"/>
+        <a:off x="6683400" y="8776080"/>
+        <a:ext cx="2269080" cy="2316240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2914,9 +7716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2924,12 +7726,102 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9041040" y="10746000"/>
-        <a:ext cx="2099160" cy="1886040"/>
+        <a:off x="8882280" y="10746000"/>
+        <a:ext cx="2061720" cy="1885680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146880</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="11082600"/>
+        <a:ext cx="2337480" cy="2371320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285480</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2476080" y="10948680"/>
+        <a:ext cx="2119680" cy="2333160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268920</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100080</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4669200" y="10956240"/>
+        <a:ext cx="1917360" cy="2287440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2946,20 +7838,20 @@
   <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R6" activeCellId="0" sqref="R6"/>
+      <selection pane="topLeft" activeCell="R6" activeCellId="1" sqref="F84:F133 R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.38775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.94387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="1.80102040816327"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="1.80102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.35204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.88775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="1.75510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="1.75510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,34 +9161,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S65"/>
+  <dimension ref="A2:S133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T5" activeCellId="0" sqref="T5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F84" activeCellId="0" sqref="F84:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.52040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.80102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="1.52040816326531"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="1.80102040816327"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.48469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.75510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="1.48469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="1.75510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,10 +11083,1451 @@
         <v>30.21</v>
       </c>
     </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>40.067</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>4.326</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>12.284</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>40.067</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>6.476</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>15.021</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>40.067</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>6.268</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>12.726</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>4.419</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>12.401</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>6.558</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>15.149</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>6.363</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>12.862</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>38.432</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>4.405</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>12.559</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>38.432</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>6.543</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>15.292</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>38.432</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>6.345</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>13.001</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>37.614</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>4.248</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>12.679</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>37.614</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>6.531</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>15.409</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>37.614</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>13.117</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>36.796</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>4.038</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>12.788</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>36.796</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>6.323</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>15.512</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>36.796</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>6.237</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>13.218</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>35.979</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>3.837</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>12.887</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>35.979</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>15.622</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>35.979</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>5.818</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>13.329</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>35.161</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>3.663</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>12.994</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>35.161</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>5.834</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>15.707</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>35.161</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>5.594</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>13.413</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>34.343</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>3.508</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>13.076</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>34.343</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>5.624</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>15.833</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>34.343</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>5.397</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>13.539</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>33.526</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>33.526</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>5.442</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>15.946</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>33.526</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>5.221</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>32.708</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>32.708</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>5.137</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>16.051</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>32.708</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>5.062</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>13.757</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>13.414</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>5.016</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>16.148</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>4.785</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>13.853</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>31.073</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>13.508</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>31.073</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>31.073</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>4.658</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>13.959</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>30.255</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>2.917</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>13.613</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>30.255</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>4.787</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>16.337</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>30.255</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>4.532</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>14.042</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>29.437</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>2.843</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>13.695</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>29.437</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>4.677</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>16.463</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>29.437</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>4.411</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>14.168</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>28.619</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>13.817</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>28.619</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>16.574</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>28.619</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>14.279</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>27.802</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>2.652</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>13.926</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>27.802</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>4.407</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>16.679</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>27.802</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>4.119</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>14.384</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>26.984</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>14.029</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>26.984</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>4.323</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>16.776</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>26.984</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>14.482</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>26.166</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>14.126</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>26.166</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>4.241</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>16.883</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>26.166</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>14.588</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>25.349</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>25.349</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>16.968</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>25.349</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>14.672</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>24.531</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>2.439</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>14.313</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>24.531</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>17.094</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>24.531</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>14.798</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>23.713</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>2.388</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>14.438</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>23.713</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>17.204</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>23.713</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>3.691</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>22.896</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>2.295</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>14.549</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>22.896</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>17.311</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>22.896</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>15.016</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>22.078</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>14.653</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>22.078</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>3.804</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>17.408</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>22.078</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>3.471</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>15.115</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>3.736</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>17.514</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>15.221</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>20.443</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>14.857</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>20.443</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>3.669</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>17.598</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>20.443</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>3.329</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>15.305</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>19.625</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>2.121</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>14.941</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>19.625</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>17.724</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>19.625</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>3.258</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>15.432</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>18.807</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>15.068</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>18.807</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>17.835</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>18.807</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>15.543</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>17.989</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>17.989</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>3.393</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>17.989</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>15.646</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>17.172</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>15.286</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>17.172</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>3.322</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>18.036</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>17.172</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>15.741</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>16.354</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>15.385</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>16.354</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>3.252</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>16.354</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>2.935</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>15.845</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>15.536</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>15.493</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>15.536</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>18.222</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>15.536</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>15.927</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>14.719</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>15.579</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>14.719</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>18.346</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>14.719</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>2.806</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>16.049</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>13.901</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>15.708</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>13.901</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>2.935</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>18.454</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>13.901</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>2.738</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>16.157</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>13.083</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>15.821</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>13.083</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>18.555</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>13.083</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>12.266</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>12.266</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>18.649</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>12.266</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>16.355</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>11.448</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>16.029</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>11.448</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>18.751</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>11.448</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>16.459</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>16.139</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>18.832</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>2.369</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>9.812</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>16.228</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>9.812</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>18.952</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>9.812</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>2.281</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>16.663</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>8.995</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>16.357</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>8.995</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>8.995</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>8.177</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>16.473</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>8.177</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>19.161</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>8.177</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>16.872</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>16.581</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>19.255</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>16.966</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>6.542</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>16.683</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>6.542</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>19.361</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>6.542</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>5.724</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>16.794</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>5.724</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>19.444</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>5.724</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>1.661</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>17.153</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>4.906</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>16.882</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>4.906</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>19.571</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>4.906</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>1.539</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>17.279</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>17.013</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>19.684</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>4.089</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>17.392</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>17.131</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>1.276</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>19.792</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>17.499</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>17.242</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>19.893</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>17.345</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>20.006</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>17.711</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>17.461</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>20.096</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>17.799</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>17.932</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
